--- a/output_files/output.xlsx
+++ b/output_files/output.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="avg_perday_AMA" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="avg_perday_stradali" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,923 +437,4398 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>nominativo</t>
+          <t>descrizione_mezzo</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>quantita_gasolio</t>
+          <t>avg_gasolio</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>avg_gasolio</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>descrizione_mezzo</t>
+          <t>avg_ADBLUE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>STEFANELLI MAURIZIO</t>
+          <t>IVECO 35 E 10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165330</v>
+        <v>1097.098951048951</v>
       </c>
       <c r="C2" t="n">
-        <v>124.4281519868316</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>IVECO AD260S31</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>EGIDI REMO</t>
+          <t>MACCHINA TRITURATRICE SEMOVENTE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98060</v>
+        <v>441.25</v>
       </c>
       <c r="C3" t="n">
-        <v>180.5623203300825</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MERCEDES ECONIC 2633 P4200+1350 6X2</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>MORO DARIO</t>
+          <t>NON APPLICABILE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96285</v>
+        <v>418.1837142857142</v>
       </c>
       <c r="C4" t="n">
-        <v>1097.098951048951</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>IVECO 35 E 10</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MATIOTTI DIEGO</t>
+          <t>IVECO 120</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75873</v>
+        <v>410.4865467625899</v>
       </c>
       <c r="C5" t="n">
-        <v>124.4281519868316</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>IVECO AD260S31</t>
-        </is>
+        <v>0.07194244604316546</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>D'ANGELO ANIELLO</t>
+          <t>VAGLIO DOPPSTADT SM 720 PROFI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65065</v>
+        <v>339.8733333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>106.6061867266592</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MERCEDES BENZ 957</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AMADIO PIETRO</t>
+          <t>ESCAVATORE CINGOLATO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50010</v>
+        <v>300</v>
       </c>
       <c r="C7" t="n">
-        <v>410.4865467625899</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>IVECO 120</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>FLAVI FAUSTO</t>
+          <t>ESCAVATORE GOMMATO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14278</v>
+        <v>228.4920465116278</v>
       </c>
       <c r="C8" t="n">
-        <v>162.6604011299436</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>IVECO MAGIRUS AG IVECO MTGC4</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>DI SALVO ROBERTO</t>
+          <t>PALA MECCANICA GOMMATA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13326</v>
+        <v>209.9466751269035</v>
       </c>
       <c r="C9" t="n">
-        <v>92.22633033033011</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>MERCEDES ECONIC 2633 VLA</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>PIRODDU ANDREA</t>
+          <t>IVECO MAGIRUS 2Y3C AD260</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10036</v>
+        <v>200.82</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5825433812593</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>IVECO STRALIS AD 260 S 31</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>PIRODDU ANDREA</t>
+          <t>IVECO EUROTECH PERFORMER 440 E 42</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8554</v>
+        <v>196.5846456692913</v>
       </c>
       <c r="C11" t="n">
-        <v>124.4281519868316</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>IVECO AD260S31</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>COSTANTINI TIZIANO</t>
+          <t>IVECO EUROTECH CURSOR 440 E 43</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8001</v>
+        <v>194.1813541666667</v>
       </c>
       <c r="C12" t="n">
-        <v>80.70845839345806</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>IVECO ML180E25/P EGP 4185</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>PELONE ANGELO</t>
+          <t>MERCEDES ECONIC 2633 P4200+1350 6X2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5068</v>
+        <v>180.5623203300825</v>
       </c>
       <c r="C13" t="n">
-        <v>92.22633033033011</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>MERCEDES ECONIC 2633 VLA</t>
-        </is>
+        <v>0.08252063015753938</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>TERCERO ULLOA RODOLFO RICARDO</t>
+          <t>IVECO MAGIRUS A440 ST/E4</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2840</v>
+        <v>171.2549906191369</v>
       </c>
       <c r="C14" t="n">
-        <v>209.9466751269035</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>PALA MECCANICA GOMMATA</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>LURASCHI ANDREA</t>
+          <t>IVECO MAGIRUS AG IVECO MTGC4</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1940</v>
+        <v>162.6604011299436</v>
       </c>
       <c r="C15" t="n">
-        <v>209.9466751269035</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>PALA MECCANICA GOMMATA</t>
-        </is>
+        <v>0.07909604519774012</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>PINTI IVAN</t>
+          <t>IVECO TRAKKER 380 T 41</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1901</v>
+        <v>158.7543181818181</v>
       </c>
       <c r="C16" t="n">
-        <v>194.1813541666667</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>IVECO EUROTECH CURSOR 440 E 43</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>IUNCO ROBERTO</t>
+          <t>IVECO MAGIRUS A380T/E4</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1770.33</v>
+        <v>150.2204444444444</v>
       </c>
       <c r="C17" t="n">
-        <v>124.4281519868316</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>IVECO AD260S31</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>BARZOTTI DANTE</t>
+          <t>RIMORCHIO TRE ASSI A PIANALE</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1698</v>
+        <v>143.05</v>
       </c>
       <c r="C18" t="n">
-        <v>124.4281519868316</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>IVECO AD260S31</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>SOBON PIOTR MARCIN</t>
+          <t>IVECO TRAKKER AD410</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1455.66</v>
+        <v>142.16546875</v>
       </c>
       <c r="C19" t="n">
-        <v>124.4281519868316</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>IVECO AD260S31</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>VALERII NICOLA</t>
+          <t>IVECO MAGIRUS A410T/E4</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1353</v>
+        <v>139.0035766423358</v>
       </c>
       <c r="C20" t="n">
-        <v>31.68686431810251</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SEMIRIMORCHIO COMPATTATORE 43 CUM</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>DE SANCTIS PINO</t>
+          <t>IVECO TRAKKER CURSOR 8 MP 380 E 38 H</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1050.89</v>
+        <v>133.555</v>
       </c>
       <c r="C21" t="n">
-        <v>124.4281519868316</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>IVECO AD260S31</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>PASQUALI FABIO</t>
+          <t>MERCEDES ECONIC 2630LL P4200+1350 6X2</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1000.16</v>
+        <v>132.0035227272728</v>
       </c>
       <c r="C22" t="n">
-        <v>1097.098951048951</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>IVECO 35 E 10</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>D'UFFIZI SILVIO</t>
+          <t>IVECO MAGIRUS 380E37H 80 3 S MDG/25</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>999.53</v>
+        <v>131.025</v>
       </c>
       <c r="C23" t="n">
-        <v>124.4281519868316</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>IVECO AD260S31</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>MORO DARIO</t>
+          <t>IVECO TRAKKER 410 T 44 H</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.87</v>
+        <v>126.6751490514905</v>
       </c>
       <c r="C24" t="n">
-        <v>1097.098951048951</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>IVECO 35 E 10</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>CAVEZZAN ANDREA</t>
+          <t>IVECO AD260S31</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>930</v>
+        <v>124.3930540172053</v>
       </c>
       <c r="C25" t="n">
-        <v>418.1837142857142</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>NON APPLICABILE</t>
-        </is>
+        <v>0.2276808800714588</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>FLAVI FAUSTO</t>
+          <t>IVECO EUROCARGO 180 E 28</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>913</v>
+        <v>120.544</v>
       </c>
       <c r="C26" t="n">
-        <v>1097.098951048951</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>IVECO 35 E 10</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>LONGO MAURIZIO</t>
+          <t>IVECO EUROTRAKKER MP 380 E 37 H</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>900</v>
+        <v>119.82</v>
       </c>
       <c r="C27" t="n">
-        <v>1097.098951048951</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>IVECO 35 E 10</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>PANELLA GIORGIO</t>
+          <t>IVECO TRAKKER AD410T45</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>900</v>
+        <v>117.88425</v>
       </c>
       <c r="C28" t="n">
-        <v>1097.098951048951</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>IVECO 35 E 10</t>
-        </is>
+        <v>1.525</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>SALVI ROBERTO</t>
+          <t>IVECO AD 260S33 Y/PS RSU</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>900</v>
+        <v>116.2357421875002</v>
       </c>
       <c r="C29" t="n">
-        <v>1097.098951048951</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>IVECO 35 E 10</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>PANELLA GIORGIO</t>
+          <t>IVECO MAGIRUS 260S/E4</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>853</v>
+        <v>111.62341902834</v>
       </c>
       <c r="C30" t="n">
-        <v>228.4920465116278</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>ESCAVATORE GOMMATO</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>BONANNI ANTONIO</t>
+          <t>JCB</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.7</v>
+        <v>109.43</v>
       </c>
       <c r="C31" t="n">
-        <v>1097.098951048951</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>IVECO 35 E 10</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>PALMA ALESSANDRO</t>
+          <t>IVECO AD 260S33 Y/PS</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>842.96</v>
+        <v>108.8206142857143</v>
       </c>
       <c r="C32" t="n">
-        <v>1097.098951048951</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>IVECO 35 E 10</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>PANELLA GIORGIO</t>
+          <t>IVECO STRALIS AD 260 S 31</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>841</v>
+        <v>107.4759732540862</v>
       </c>
       <c r="C33" t="n">
-        <v>441.25</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>MACCHINA TRITURATRICE SEMOVENTE</t>
-        </is>
+        <v>0.170381376919267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>VIVARELLI ROBERTO</t>
+          <t>MERCEDES BENZ 957</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>820</v>
+        <v>106.6061867266592</v>
       </c>
       <c r="C34" t="n">
-        <v>339.8733333333333</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>VAGLIO DOPPSTADT SM 720 PROFI</t>
-        </is>
+        <v>0.03899512560929884</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>FONSI SILVIANO</t>
+          <t>IVECO STRALIS AD 260 S 30 Y/PS</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>815.08</v>
+        <v>105.377187564767</v>
       </c>
       <c r="C35" t="n">
-        <v>1097.098951048951</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>IVECO 35 E 10</t>
-        </is>
+        <v>0.02435233160621762</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>RIPICCINI FRANCESCO</t>
+          <t>IVECO MAGIRUS 260</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>810</v>
+        <v>104.4604272363148</v>
       </c>
       <c r="C36" t="n">
-        <v>209.9466751269035</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>PALA MECCANICA GOMMATA</t>
-        </is>
+        <v>0.1748998664886515</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>DANIELE PASQUALINO</t>
+          <t>MERCEDES ECONIC 1833</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>806.55</v>
+        <v>103.4433333333333</v>
       </c>
       <c r="C37" t="n">
-        <v>1097.098951048951</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>IVECO 35 E 10</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>DROGO STEFANO</t>
+          <t>MERCEDES BENZ NGE-L42  ECONIC 1830</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>806.09</v>
+        <v>93.84514851485149</v>
       </c>
       <c r="C38" t="n">
-        <v>1097.098951048951</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>IVECO 35 E 10</t>
-        </is>
+        <v>1.148514851485148</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>RIPICCINI FRANCESCO</t>
+          <t>MERCEDES ECONIC 2633 VLA</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>806</v>
+        <v>92.22633033033011</v>
       </c>
       <c r="C39" t="n">
-        <v>228.4920465116278</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>ESCAVATORE GOMMATO</t>
-        </is>
+        <v>0.06786786786786787</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>RIPICCINI FRANCESCO</t>
+          <t>IVECO 180E28K passo 4185</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>805</v>
+        <v>91.0917679558011</v>
       </c>
       <c r="C40" t="n">
-        <v>418.1837142857142</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>NON APPLICABILE</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>DROGO STEFANO</t>
+          <t>RENAULT PRC3C UJZ6T4 NHHL73680S575UBNNR1</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>803.6</v>
+        <v>87.78032786885252</v>
       </c>
       <c r="C41" t="n">
-        <v>1097.098951048951</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>IVECO 35 E 10</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>MEZZABARBA FRANCO</t>
+          <t>DULEVO 5010</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>803.46</v>
+        <v>86.26333333333334</v>
       </c>
       <c r="C42" t="n">
-        <v>418.1837142857142</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>NON APPLICABILE</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>DROGO STEFANO</t>
+          <t>IVECO ML 120</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.22</v>
+        <v>83.51400000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>1097.098951048951</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>IVECO 35 E 10</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>DE GIORGIS MARINO</t>
+          <t>SCHMIDT  CITY JET 6000  TIPO SWK J 4D1B</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>802.9299999999999</v>
+        <v>83.05571428571429</v>
       </c>
       <c r="C44" t="n">
-        <v>418.1837142857142</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>NON APPLICABILE</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>VIVARELLI ROBERTO</t>
+          <t>IVECO ML180E25/P EGP 4185</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>802.9</v>
+        <v>80.66965624999966</v>
       </c>
       <c r="C45" t="n">
-        <v>1097.098951048951</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>IVECO 35 E 10</t>
-        </is>
+        <v>0.09278846153846154</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>DROGO STEFANO</t>
+          <t>IVECO 180/E4</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.87</v>
+        <v>79.162760115607</v>
       </c>
       <c r="C46" t="n">
-        <v>1097.098951048951</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>IVECO 35 E 10</t>
-        </is>
+        <v>0.02601156069364162</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>PANELLA GIORGIO</t>
+          <t>BAMFORD</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>802.4299999999999</v>
+        <v>74.61</v>
       </c>
       <c r="C47" t="n">
-        <v>1097.098951048951</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>IVECO 35 E 10</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>LA ROSA ALBERTO</t>
+          <t>RAVO 530</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>802.05</v>
+        <v>71.071</v>
       </c>
       <c r="C48" t="n">
-        <v>1097.098951048951</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>IVECO 35 E 10</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>MORO DARIO</t>
+          <t>IVECO EUROCARGO TECTOR ML 180 E 28</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>801.96</v>
+        <v>70.52702380952387</v>
       </c>
       <c r="C49" t="n">
-        <v>418.1837142857142</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>NON APPLICABILE</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>BARBARA ROSARIO</t>
+          <t>SCHMIDT COMPACT SYSTEM CLEANGO</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>801.8099999999999</v>
+        <v>70.342</v>
       </c>
       <c r="C50" t="n">
-        <v>1097.098951048951</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>IVECO 35 E 10</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>DROGO STEFANO</t>
+          <t>IVECO EUROCARGO ML 170 E 27</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>801.67</v>
+        <v>70.33</v>
       </c>
       <c r="C51" t="n">
-        <v>1097.098951048951</v>
-      </c>
-      <c r="D51" t="inlineStr">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 35 E 4</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>68.8528</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RENAULT ACCESS 310.26 PASSO 4200</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>65.0177372262774</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>IVECO EUROCARGO ML 150 E 23 FP</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>64.36</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>IVECO EUROCARGO ML 150 E 18</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>63.95399999999999</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RAVO 5002</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 120EL22P P.3105 4X2</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>60.70537857142859</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>IVECO EUROCARGO ML 120 E 18</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>58.84308550185871</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.07434944237918216</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>CARRELLO ELEVATORE DIESEL</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>58.27722772277227</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>IVECO EUROCARGO 120EL22P P3105</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>56.83470775924589</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.1573604060913706</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>BENATI 5.15</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>56.81416666666666</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>IVECO EUROCARGO ML 80 E 13</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>56.1025</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 80 E 18</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>55.98593220338984</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>IVECO EUROCARGO TECTOR ML 120 EL 22</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>55.37230550823397</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.04202157864849517</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>IVECO ML120 EL22/P</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>54.52054679922408</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.002909796314258002</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 2Y3C - I C0 9</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>53.952</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>YALE GDP 40VX</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>52.0536</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>SICAS</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>51.73148148148148</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>IVECO EUROTRAKKER CURSOR 8 MP 380 E 38 H</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>51.53999999999999</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>FIAT DOBLO'</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>51.224</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>IVECO  2Y3C 2C09 AD260SY/PS</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>50.21</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>SICAS 4000/4T</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>49.53416666666666</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>RAVO 540</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>48.02909090909091</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>IVECO EUROCARGO 110 E 17</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>47.66978494623657</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>FIAT DOBLO' CARGO CH1 EASY 1.3 MJET 95CV</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>45.23561403508772</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>IVECO EUROCARGO ML 120 EL 21</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>44.71333333333334</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 35/29</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>44.653</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>IVECO IG120EL2BA 120EL</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>44.40256920415229</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.03027681660899654</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>FIAT DUCATO COMBINATO 33 MH2 2.3 MJT 120</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>43.44666666666667</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>FIAT DOBLO' CARGO 1.3 MJET</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>42.9825806451613</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>FIAT DOBLO' 1.9JTD</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>41.95800000000001</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>YALE GDP30VX</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>40.4136</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 50C 15</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>40.3768539325843</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>IVECO IS35CI2AA ID11A1A35C13</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>37.63875</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 35C14</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>36.27066666666668</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>RENAULT MAXITY 120.35 P2500</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>32.4232258064516</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>RENAULT TRUCKS F241 ISD4R</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>32.3225</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>ISUZU N2R 85D BBCHAC002727CGCME29</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>32.14930180180182</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>SEMIRIMORCHIO COMPATTATORE 43 CUM</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>31.68686431810251</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>CAT 910 GOMMATA</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>31.328</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>IVECO DAILY 35C13</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>30.91</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 35 C 12 CABINA 6+1</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>30.73</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>ISUZU / PRETTO M21 - BLEU</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>30.23535714285714</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>SCHMIDT S461P COMPACT 400 CLEANGO 500</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>30.23</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>RENAULT TRAFIC T29 1.6 DCI 125CV</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>30</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>IVECO DAILY 35C14S</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>29.67473684210527</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 29L13 V</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>29.03</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>IVECO DAILY 35C13 P3000</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>28.72310344827586</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>CR Iveco Daily 35c14</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>27.81397260273973</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>ISUZU L35 M21</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>26.88605263157894</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>RAVO 540 EURO 6 N</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>ZORZI 37 S 115 PA</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>26.62016293279024</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>MITSUBISHI - L200</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>26</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>GIEFFE AUTOMOTIVE 380/SP10F</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>25.70206349206349</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>IVECO IS 35CC2AA</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>25.07</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>IVECO DAILY 35C13 MEC TOR</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>25.035</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>RENAULT MAXITY 120.35/5</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>24.645</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>IVECO IS35CI2AA</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>24.55515151515151</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>RENAULT MAXITY 120.35 E5 P2500 4x2</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>22.99727272727273</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>APPLIED SWEEPERS 636</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>MERCEDES DAIMLER VITO</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 35 C 12</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>21.031</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 30.8.1</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>20</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>RENAULT MAXITY 130.35</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F131"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>descrizione_mezzo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>avg_gasolio</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>avg_benzina</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>avg_metano</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>avg_GPL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>avg_ADBLUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ISUZU N2R 85D BBCHAC002727CGCME29</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7774.520021857917</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.165522768670312</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RENAULT TRAFIC T29 1.6 DCI 125CV</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3542.268048780488</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1721544715447154</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>PIAGGIO APE CAR</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2859.447142857143</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>IVECO IS35CI2AA</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>348.7203672727287</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>FIAT DUCATO COMBINATO 33 MH2 2.3 MJT 120</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>277.9198469387754</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7.906887755102042</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 35 C 12</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>235.9857053274135</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>JEEP GRAND CHEROKEE</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>219.715</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>IVECO DAILY 35C13</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>196.1780500695411</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>IVECO MAGIRUS 2Y3C AD260</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>189.1611764705882</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 35.8</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>185.323125</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>SCHMIDT COMPACT SYSTEM CLEANGO</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>183.9443173862309</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>IVECO DAILY 35C13 MEC TOR</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>154.6145103264491</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>IVECO EUROTECH CURSOR 440 E 43</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>152.3016666666666</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>IVECO IS 35CC2AA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>148.0998666666667</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>IVECO EUROTECH PERFORMER 440 E 42</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>146.25</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>IVECO TRAKKER AD410T45</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>138.8407017543859</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.5163157894736842</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>IVECO 35 E 10</t>
         </is>
+      </c>
+      <c r="B18" t="n">
+        <v>137.8575</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>SCHMIDT S461P COMPACT 400 CLEANGO 500</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>131.9464454976302</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.879921011058452</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RENAULT MAXITY 130.35</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>131.7695547087643</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>IVECO MAGIRUS 260S/E4</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>130.2746861924685</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1589958158995816</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>IVECO MAGIRUS A380T/E4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>IVECO TRAKKER 410 T 44 H</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>123.963</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>IVECO MAGIRUS AG IVECO MTGC4</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>122.0693127147767</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7743642611683849</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>IVECO MAGIRUS 260</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>121.0219607843136</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.156230936819172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>IVECO STRALIS AD 260 S 31</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>119.5104275534442</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.299097387173397</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>IVECO AD 260S33 Y/PS RSU</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>119.3185232067511</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1320675105485232</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>ISUZU L35 M21</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>117.8158159164891</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>IVECO TRAKKER 380 T 41</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>117.5062222222222</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>IVECO STRALIS AD 260 S 30 Y/PS</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>117.2686376811594</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.4331014492753624</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>IVECO TRAKKER AD410</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>116.9377777777778</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>IVECO AD 260S33 Y/PS</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>115.6903571428571</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>IVECO MAGIRUS A440 ST/E4</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>113.9223333333334</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RENAULT PRC3C UJZ6T4 NHHL73680S575UBNNR1</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>113.6375</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RAVO 540</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>113.230437372263</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>MERCEDES BENZ NGE-L42  ECONIC 1830</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>112.295838150289</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.376184971098266</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>MERCEDES ECONIC 2633 P4200+1350 6X2</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>111.9305424083769</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.2675706806282722</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RENAULT MAXITY 120.35 E5 P2500 4x2</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>111.1822475570033</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RAVO 540 EURO 6 N</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>110.4391757123472</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4.437564450474898</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RENAULT MAXITY 120.35/5</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>106.7703723522855</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>IVECO AD260S31</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>106.5601333897356</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.796181613085168</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 35 C 12 CABINA 6+1</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>104.9353012048193</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>MERCEDES ECONIC 2630LL P4200+1350 6X2</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>97.54870370370372</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1798148148148148</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>IVECO DAILY 35C13 P3000</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>97.17656360808702</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 2Y3C - I C0 9</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>96.26378378378379</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 35C14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>96.21400656275686</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.597602356626149</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>DULEVO 5010</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>94.89399796541205</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>MERCEDES BENZ 957</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>93.16440124416805</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.2505598755832037</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>IVECO EUROCARGO 180 E 28</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>93.13333333333333</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>8.114444444444445</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>IVECO TRAKKER CURSOR 8 MP 380 E 38 H</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>92.84</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>IVECO EUROCARGO TECTOR ML 180 E 28</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>91.46700598802401</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 180/E4</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>91.00089285714287</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>IVECO ML180E25/P EGP 4185</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>90.19424679487186</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.317692307692307</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>IVECO MAGIRUS A410T/E4</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>87.30666666666667</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3.280833333333333</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>CR Iveco Daily 35c14</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>86.60758579396348</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>MERCEDES ECONIC 2633 VLA</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>84.1167889908257</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.2616207951070336</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 180E28K passo 4185</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>83.96041666666666</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>IVECO  2Y3C 2C09 AD260SY/PS</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>82.19695652173912</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5.982173913043479</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>RENAULT TRUCKS F241 ISD4R</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>80.10947951273531</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>IVECO EUROCARGO ML 170 E 27</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>78.00749999999999</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>DULEVO 850 DK</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>75.25591653027809</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>RAVO 540 SPRAY WASHER</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>73.70389312977093</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>IVECO EUROCARGO 120EL22P P3105</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>73.63786116322697</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.67234521575985</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>RENAULT ACCESS 310.26 PASSO 4200</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>72.40230275229362</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0118348623853211</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>MERCEDES ECONIC 1833</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>71.065</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 120EL22P P.3105 4X2</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>70.57629629629629</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>IVECO EUROCARGO ML 120 E 18</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>69.78289855072462</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.1598550724637681</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>IVECO ML120 EL22/P</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>67.82100584795327</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.1967134502923976</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>RAVO 5002</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>67.73999999999999</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>ISUZU / PRETTO M21 - BLEU</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>67.29054605973406</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.712542281396187</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>IVECO EUROCARGO TECTOR ML 120 EL 22</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>63.81316293929711</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0585143769968051</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>RENAULT MAXITY 120.35 P2500</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>60.47743519029235</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>FIAT DOBLO' CARGO 1.3 MJET</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>59.70481297709922</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.7489312977099236</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>BUCHER CITY CAR</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>59.51692307692308</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>IVECO IS35CI2AA ID11A1A35C13</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>58.65244290657435</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>IVECO EUROCARGO 110 E 17</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>57.9225</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>IVECO ML 120</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>57.91928571428573</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>FIAT DOBLO'</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>55.45</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>IVECO EUROCARGO ML 120 EL 21</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>54.685</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 80 E 18</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>53.35540540540542</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 120E</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>52.19460526315792</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.2390789473684211</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>SICAS 4000/4T</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>51.91882352941176</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>SCHMIDT  CITY JET 6000  TIPO SWK J 4D1B</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>51.65694300518136</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 35/29</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>51.024</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>FIAT DUCATO 28CH1 2.3 MULTIJET 120CV E6D</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>50.44102189781022</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.346058394160584</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>MITSUBISHI - L200</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>49.78636363636364</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>MAZDA 6</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>48.44363636363637</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 29L13 V</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>48.40310734463273</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>RENAULT TRAFIC T27 1.6 PL-TN 95CV E6</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>48.36222222222222</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>FIAT DOBLO' CARGO CH1 EASY 1.3 MJET 95CV</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>47.63637485029946</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.9630658682634732</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>FIAT DOBLO' CARGO 1.3 MTJ</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>47.4935</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>FIAT DOBLO' WORK-UP</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>46.57285714285714</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 35 E 4</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>46.40291666666666</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>GILETTA SPA</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>45.63317241379312</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 50C 15</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>45.35688888888889</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 33S13 V</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>44.79423076923077</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>NISSAN CABSTAR 35.13</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>44.08</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>IVECO EUROCARGO ML 150 E 18</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>44.05500000000001</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>IVECO DAILY 35C14S</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>43.14715686274511</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.3552941176470588</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>FIAT DOBLO' 1.9JTD</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>42.49461538461539</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 35C15</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>39.71564102564102</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>SICAS MA4M1A</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>SEMIRIMORCHIO COMPATTATORE 43 CUM</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>37.55300000000001</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>FIAT DOBLO' CARGO COMBI 1.3 MJT16V 95 CV</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>33.732</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>ZORZI 37 S 115 PA</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>33.70444444444444</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>BAMFORD</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>30.37818181818182</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>GASOLONE EFFEDI 35D10S</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>OPEL MOKKA</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>29.60333333333334</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>FIAT PANDA 1000</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>28.92121212121212</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>IVECO 120</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>26.83608695652174</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>APPLIED SWEEPERS 636</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>26.78365725047081</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>GIEFFE AUTOMOTIVE 380/SP10F</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>25.40333333333333</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>NON APPLICABILE</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>23.59067567567567</v>
+      </c>
+      <c r="C113" t="n">
+        <v>25.15043243243244</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>APPLIED SWEEPERS 525</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>RIMORCHIO TRE ASSI A PIANALE</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>FIAT PANDA 0.9 TWINAIR TURBO N.P. CITY L</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>105.1028993288598</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4.023825503355703</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.3904801239029426</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>PIAGGIO PORTER MAXXI</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>58.42764970059878</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>19.22303892215567</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>FIAT PANDA VAN POP 900CC</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>47.19564935064935</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>FIAT 500L</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>39.465</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>FORD PUMA</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>35.67</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>FIAT SEICENTO</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>31.842</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>FIAT PANDA 312 PXA1A POBJ</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>30.16</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>FIAT PANDA  312 PYD1B EP18AUM</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>30.10875</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>LANCIA YPSILON</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>29.91666666666667</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>FIAT 500</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>27.51285714285714</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>OPEL CORSA  E</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>PIAGGIO PORTER MAXXI MULTITECH</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>23.74861720067454</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2.002394603709949</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>FIAT PANDA 312 PYD1B EP18RM</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>TOYOTA AYGO</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>DULEVO INTERNATIONAL - 5000 ZERO</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>123.5962095730919</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>IVECO IG120EL2BA 120EL</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>-3.289907834101396</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.2701843317972351</v>
       </c>
     </row>
   </sheetData>
